--- a/src/database/seeders/files/dpa.xlsx
+++ b/src/database/seeders/files/dpa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug-backend\src\database\seeders\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4498C4-09E1-4367-9743-51E28D03B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D630312-365D-4E48-8B2F-6A3D32736E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8880,10 +8880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1476" workbookViewId="0">
-      <selection activeCell="A1497" sqref="A1497"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98:G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8918,7 +8919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>-79.653459999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>-78.536309299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>-79.611242300000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>-78.600879000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>-79.420931199999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>-78.834449300000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>-80.463375499999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>-79.6758351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>-80.953643999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>-79.103157400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>-79.243398600000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>-80.602232200000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>-81.362797700000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>-78.944953699999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>-78.289422999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>-78.000904000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>-78.509276900000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>-79.087042699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>-80.018987300000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>-91.544967499999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>-77.722902300000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>-77.528992000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>-79.707888299999993</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -47050,7 +47051,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1497" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="37"/>
+        <filter val="38"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
